--- a/methods_of_science/lab_1/prediction_results.xlsx
+++ b/methods_of_science/lab_1/prediction_results.xlsx
@@ -436,213 +436,213 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Actual</t>
+          <t>Фактический ВВП</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Predicted</t>
+          <t>Прогноз ВВП</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19828</v>
+        <v>7.290000000000001</v>
       </c>
       <c r="B2" t="n">
-        <v>85423.16867494825</v>
+        <v>7.450813857090152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>14.44</v>
       </c>
       <c r="B3" t="n">
-        <v>48634.55851785703</v>
+        <v>16.60065714709349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>19.36</v>
       </c>
       <c r="B4" t="n">
-        <v>140594.6840086782</v>
+        <v>18.18212854741144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>20.25</v>
       </c>
       <c r="B5" t="n">
-        <v>62923.44755177716</v>
+        <v>17.62066738184316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32219</v>
+        <v>23.04</v>
       </c>
       <c r="B6" t="n">
-        <v>132959.2836031614</v>
+        <v>18.77734163647215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>16.81</v>
       </c>
       <c r="B7" t="n">
-        <v>62953.20029740615</v>
+        <v>11.45542619299818</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="n">
-        <v>36372.06849122645</v>
+        <v>-1.978190958544962</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="B9" t="n">
-        <v>-98466.96778569964</v>
+        <v>2.593557711269545</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>8.41</v>
       </c>
       <c r="B10" t="n">
-        <v>36078.19545458355</v>
+        <v>13.13593348950878</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>355961</v>
+        <v>14.44</v>
       </c>
       <c r="B11" t="n">
-        <v>16902890.85937214</v>
+        <v>16.63063472355096</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27073</v>
+        <v>12.25</v>
       </c>
       <c r="B12" t="n">
-        <v>129023.1373394174</v>
+        <v>10.57759534763587</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>59386</v>
+        <v>8.41</v>
       </c>
       <c r="B13" t="n">
-        <v>231457.8366693764</v>
+        <v>6.839327387086746</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>3.61</v>
       </c>
       <c r="B14" t="n">
-        <v>-923446.0172051073</v>
+        <v>2.017347924025875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>28789</v>
+        <v>0.01</v>
       </c>
       <c r="B15" t="n">
-        <v>146146.1481124842</v>
+        <v>-4.695620521389593</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>38780</v>
+        <v>6.25</v>
       </c>
       <c r="B16" t="n">
-        <v>84216.66831435596</v>
+        <v>-13.91503779342536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>27030</v>
+        <v>6.760000000000001</v>
       </c>
       <c r="B17" t="n">
-        <v>79579.75972706468</v>
+        <v>17.6348792060362</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="B18" t="n">
-        <v>-30450.5095749523</v>
+        <v>8.249846046550621</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>4.840000000000001</v>
       </c>
       <c r="B19" t="n">
-        <v>62976.39937086881</v>
+        <v>13.4279725289957</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="B20" t="n">
-        <v>62914.88323645488</v>
+        <v>5.774298652115474</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>30556</v>
+        <v>6.25</v>
       </c>
       <c r="B21" t="n">
-        <v>-13439.88840494226</v>
+        <v>11.29566640790178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>30928</v>
+        <v>8.41</v>
       </c>
       <c r="B22" t="n">
-        <v>94520.99821449521</v>
+        <v>10.87860598730068</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>38616</v>
+        <v>2.56</v>
       </c>
       <c r="B23" t="n">
-        <v>88053.35221087505</v>
+        <v>0.4321304088607985</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>5.76</v>
       </c>
       <c r="B24" t="n">
-        <v>59259.13213404629</v>
+        <v>7.959738478466226</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>8.41</v>
       </c>
       <c r="B25" t="n">
-        <v>-1876.51842054302</v>
+        <v>9.316137888799757</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>5.289999999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>13268.77618703469</v>
+        <v>2.076446681798187</v>
       </c>
     </row>
   </sheetData>
